--- a/QS.xlsx
+++ b/QS.xlsx
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D2">
         <v>2819628</v>
@@ -541,10 +541,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C3">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3">
         <v>2858606</v>
@@ -564,10 +564,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>2850518</v>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -610,10 +610,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D6">
         <v>2805211</v>
@@ -633,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D7">
         <v>2805517</v>
@@ -656,10 +656,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C8">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D8">
         <v>2822947</v>
@@ -679,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>2824363</v>
@@ -702,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D11">
         <v>2838962</v>
@@ -748,10 +748,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C12">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D12">
         <v>2847153</v>
@@ -771,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C13">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D13">
         <v>2810602</v>
@@ -794,10 +794,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D14">
         <v>2786765</v>
@@ -817,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C15">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D15">
         <v>2833246</v>
@@ -840,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C16">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D16">
         <v>2786469</v>
@@ -863,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C17">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D17">
         <v>2805740</v>
@@ -886,10 +886,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C18">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D18">
         <v>2859581</v>
@@ -909,10 +909,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C19">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D19">
         <v>2767948</v>
@@ -932,10 +932,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C20">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D20">
         <v>2825966</v>
@@ -955,10 +955,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C21">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D21">
         <v>2778113</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
         <v>44954033</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C3">
         <v>45033994</v>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C4">
         <v>44931121</v>
@@ -4175,13 +4175,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C5">
         <v>45070766</v>
       </c>
       <c r="D5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="E5">
         <v>45104132</v>
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
         <v>44847155</v>
@@ -4221,13 +4221,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>45158517</v>
       </c>
       <c r="D7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="E7">
         <v>45193864</v>
@@ -4244,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
         <v>44976689</v>
@@ -4267,7 +4267,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C9">
         <v>44849755</v>
@@ -4290,7 +4290,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
         <v>44907123</v>
@@ -4313,13 +4313,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
         <v>44997577</v>
       </c>
       <c r="D11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="E11">
         <v>45098486</v>
@@ -4336,7 +4336,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C12">
         <v>45143641</v>
@@ -4359,7 +4359,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C13">
         <v>44790449</v>
@@ -4382,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C14">
         <v>45033964</v>
@@ -4405,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
         <v>44916502</v>
@@ -4428,7 +4428,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C16">
         <v>45021521</v>
@@ -4451,13 +4451,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C17">
         <v>45226317</v>
       </c>
       <c r="D17">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="E17">
         <v>45342669</v>
@@ -4474,7 +4474,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C18">
         <v>45239663</v>
@@ -4497,7 +4497,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C19">
         <v>44958497</v>
@@ -4520,7 +4520,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C20">
         <v>44996944</v>
@@ -4543,13 +4543,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C21">
         <v>44876156</v>
       </c>
       <c r="D21">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="E21">
         <v>44983066</v>
@@ -4599,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D2">
         <v>9989611</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C3">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D3">
         <v>9919436</v>
@@ -4645,10 +4645,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>9980293</v>
@@ -4668,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>9856104</v>
@@ -4691,10 +4691,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C6">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D6">
         <v>10030915</v>
@@ -4714,10 +4714,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D7">
         <v>9950652</v>
@@ -4737,10 +4737,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C8">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D8">
         <v>10007709</v>
@@ -4760,10 +4760,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>9887124</v>
@@ -4783,10 +4783,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D10">
         <v>9996205</v>
@@ -4806,10 +4806,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>10058444</v>
@@ -4829,10 +4829,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C12">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D12">
         <v>9944516</v>
@@ -4852,10 +4852,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>9879225</v>
@@ -4875,10 +4875,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C14">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D14">
         <v>10049707</v>
@@ -4898,10 +4898,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>10198005</v>
@@ -4921,10 +4921,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C16">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D16">
         <v>10040233</v>
@@ -4944,10 +4944,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C17">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D17">
         <v>9965064</v>
@@ -4967,10 +4967,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C18">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D18">
         <v>9905756</v>
@@ -4990,10 +4990,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C19">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D19">
         <v>9787758</v>
@@ -5013,10 +5013,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D20">
         <v>10018293</v>
@@ -5036,7 +5036,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C2">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D2">
         <v>11699331</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C8">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D8">
         <v>11775501</v>
@@ -5238,7 +5238,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5284,10 +5284,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>11756805</v>
@@ -5307,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -5330,10 +5330,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>11689703</v>
@@ -5353,10 +5353,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C14">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D14">
         <v>11643089</v>
@@ -5376,10 +5376,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>11716856</v>
@@ -5399,7 +5399,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C17">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D17">
         <v>11782315</v>
@@ -5445,7 +5445,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5491,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5514,10 +5514,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C21">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D21">
         <v>11781931</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
         <v>1423680</v>
@@ -7436,7 +7436,7 @@
         <v>1418750</v>
       </c>
       <c r="E2">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C3">
         <v>1422896</v>
@@ -7459,7 +7459,7 @@
         <v>1413730</v>
       </c>
       <c r="E3">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -7473,7 +7473,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C4">
         <v>1429612</v>
@@ -7482,7 +7482,7 @@
         <v>1429210</v>
       </c>
       <c r="E4">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -7496,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
         <v>1392316</v>
@@ -7505,7 +7505,7 @@
         <v>1380975</v>
       </c>
       <c r="E5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -7519,7 +7519,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C6">
         <v>1411062</v>
@@ -7528,7 +7528,7 @@
         <v>1408624</v>
       </c>
       <c r="E6">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -7542,7 +7542,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C7">
         <v>1442833</v>
@@ -7551,7 +7551,7 @@
         <v>1435252</v>
       </c>
       <c r="E7">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -7565,7 +7565,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
         <v>1412253</v>
@@ -7574,7 +7574,7 @@
         <v>1411321</v>
       </c>
       <c r="E8">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -7588,7 +7588,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>1440131</v>
@@ -7597,7 +7597,7 @@
         <v>1436786</v>
       </c>
       <c r="E9">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -7611,7 +7611,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
         <v>1413948</v>
@@ -7620,7 +7620,7 @@
         <v>1410373</v>
       </c>
       <c r="E10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -7634,7 +7634,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C11">
         <v>1419267</v>
@@ -7643,7 +7643,7 @@
         <v>1413702</v>
       </c>
       <c r="E11">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -7657,7 +7657,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C12">
         <v>1431611</v>
@@ -7666,7 +7666,7 @@
         <v>1429965</v>
       </c>
       <c r="E12">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -7680,7 +7680,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C13">
         <v>1414271</v>
@@ -7689,7 +7689,7 @@
         <v>1412025</v>
       </c>
       <c r="E13">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -7703,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14">
         <v>1406378</v>
@@ -7712,7 +7712,7 @@
         <v>1394177</v>
       </c>
       <c r="E14">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -7726,7 +7726,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
         <v>1436056</v>
@@ -7735,7 +7735,7 @@
         <v>1433718</v>
       </c>
       <c r="E15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -7749,7 +7749,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C16">
         <v>1432264</v>
@@ -7758,7 +7758,7 @@
         <v>1431296</v>
       </c>
       <c r="E16">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -7772,7 +7772,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C17">
         <v>1373752</v>
@@ -7781,7 +7781,7 @@
         <v>1372770</v>
       </c>
       <c r="E17">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -7795,7 +7795,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C18">
         <v>1432789</v>
@@ -7804,7 +7804,7 @@
         <v>1429598</v>
       </c>
       <c r="E18">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -7818,7 +7818,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C19">
         <v>1374851</v>
@@ -7827,7 +7827,7 @@
         <v>1363799</v>
       </c>
       <c r="E19">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -7841,7 +7841,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C20">
         <v>1398011</v>
@@ -7850,7 +7850,7 @@
         <v>1397583</v>
       </c>
       <c r="E20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -7864,7 +7864,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C21">
         <v>1383204</v>
@@ -7873,7 +7873,7 @@
         <v>1378905</v>
       </c>
       <c r="E21">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8562,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8585,10 +8585,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>22429620</v>
@@ -8608,7 +8608,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8631,10 +8631,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D6">
         <v>22586964</v>
@@ -8654,10 +8654,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D7">
         <v>22609368</v>
@@ -8677,7 +8677,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8723,10 +8723,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D10">
         <v>22429071</v>
@@ -8746,10 +8746,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>22568784</v>
@@ -8769,7 +8769,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8792,10 +8792,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>22440119</v>
@@ -8815,7 +8815,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8861,10 +8861,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C16">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D16">
         <v>22430446</v>
@@ -8884,7 +8884,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -8907,10 +8907,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C18">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D18">
         <v>22452461</v>
@@ -8930,7 +8930,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -8976,10 +8976,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C21">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D21">
         <v>22528132</v>
@@ -9651,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C2">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D2">
         <v>10449627</v>
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -9697,10 +9697,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>10534796</v>
@@ -9720,10 +9720,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>10472365</v>
@@ -9743,10 +9743,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C6">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6">
         <v>10554228</v>
@@ -9766,10 +9766,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C7">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D7">
         <v>10547210</v>
@@ -9789,10 +9789,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C8">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D8">
         <v>10455972</v>
@@ -9812,10 +9812,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D9">
         <v>10420886</v>
@@ -9835,10 +9835,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C10">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D10">
         <v>10558770</v>
@@ -9858,10 +9858,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C11">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D11">
         <v>10469562</v>
@@ -9881,10 +9881,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C12">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D12">
         <v>10524906</v>
@@ -9904,10 +9904,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>10450962</v>
@@ -9927,10 +9927,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D14">
         <v>10435247</v>
@@ -9950,10 +9950,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C15">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D15">
         <v>10611735</v>
@@ -9973,10 +9973,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C16">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="D16">
         <v>10486618</v>
@@ -9996,10 +9996,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C17">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D17">
         <v>10663669</v>
@@ -10019,10 +10019,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C18">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D18">
         <v>10260437</v>
@@ -10042,10 +10042,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C19">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D19">
         <v>10360560</v>
@@ -10065,7 +10065,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.264705882352941</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10088,10 +10088,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C21">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D21">
         <v>10545337</v>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10167,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10236,10 +10236,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6">
         <v>11655195</v>
@@ -10259,7 +10259,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10282,10 +10282,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C8">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D8">
         <v>11632339</v>
@@ -10305,10 +10305,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>11523757</v>
@@ -10328,10 +10328,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D10">
         <v>11542063</v>
@@ -10351,10 +10351,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>11566558</v>
@@ -10374,7 +10374,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10397,10 +10397,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>11514136</v>
@@ -10420,10 +10420,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D14">
         <v>11516643</v>
@@ -10443,10 +10443,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>11589840</v>
@@ -10466,10 +10466,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C16">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D16">
         <v>11581517</v>
@@ -10489,10 +10489,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C17">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D17">
         <v>11611259</v>
@@ -10512,10 +10512,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C18">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D18">
         <v>11567176</v>
@@ -10535,7 +10535,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10558,7 +10558,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C21">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D21">
         <v>11612370</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10706,10 +10706,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>23299038</v>
@@ -10729,7 +10729,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10775,10 +10775,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C8">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D8">
         <v>23163079</v>
@@ -10798,7 +10798,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10821,7 +10821,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -13995,10 +13995,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D2">
         <v>5639316</v>
@@ -14018,10 +14018,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C3">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3">
         <v>5732442</v>
@@ -14041,10 +14041,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>5664109</v>
@@ -14064,10 +14064,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>5550501</v>
@@ -14087,10 +14087,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C6">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6">
         <v>5631161</v>
@@ -14110,10 +14110,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D7">
         <v>5673183</v>
@@ -14133,10 +14133,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C8">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D8">
         <v>5677057</v>
@@ -14156,10 +14156,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D9">
         <v>5582731</v>
@@ -14179,10 +14179,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D10">
         <v>5615636</v>
@@ -14202,10 +14202,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>5672261</v>
@@ -14225,10 +14225,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C12">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D12">
         <v>5646825</v>
@@ -14248,10 +14248,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C13">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D13">
         <v>5613667</v>
@@ -14271,10 +14271,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D14">
         <v>5606850</v>
@@ -14294,10 +14294,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D15">
         <v>5651897</v>
@@ -14317,10 +14317,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C16">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D16">
         <v>5630308</v>
@@ -14340,10 +14340,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C17">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D17">
         <v>5633135</v>
@@ -14363,10 +14363,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C18">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D18">
         <v>5679208</v>
@@ -14386,7 +14386,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -14409,10 +14409,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C20">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D20">
         <v>5618493</v>
@@ -14432,10 +14432,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C21">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D21">
         <v>5606827</v>
@@ -16964,10 +16964,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C2">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D2">
         <v>11618888</v>
@@ -16987,7 +16987,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -17010,10 +17010,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C4">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D4">
         <v>11570496</v>
@@ -17033,7 +17033,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -17056,10 +17056,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D6">
         <v>11739892</v>
@@ -17079,7 +17079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -17102,10 +17102,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C8">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D8">
         <v>11704200</v>
@@ -17125,10 +17125,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>11592359</v>
@@ -17148,7 +17148,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -17171,10 +17171,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>11647148</v>
@@ -17194,7 +17194,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -17217,10 +17217,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>11611343</v>
@@ -17240,10 +17240,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C14">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D14">
         <v>11555599</v>
@@ -17263,10 +17263,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>11646202</v>
@@ -17286,10 +17286,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C16">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D16">
         <v>11650068</v>
@@ -17309,7 +17309,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -17332,10 +17332,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C18">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D18">
         <v>11656544</v>
@@ -17355,7 +17355,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -17401,7 +17401,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -17457,10 +17457,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C2">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D2">
         <v>9989611</v>
@@ -17480,10 +17480,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C3">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D3">
         <v>9919436</v>
@@ -17503,10 +17503,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C4">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4">
         <v>9980293</v>
@@ -17526,10 +17526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>9856104</v>
@@ -17549,10 +17549,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C6">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D6">
         <v>10030915</v>
@@ -17572,10 +17572,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C7">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D7">
         <v>9950652</v>
@@ -17595,10 +17595,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C8">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D8">
         <v>10007709</v>
@@ -17618,10 +17618,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>9887124</v>
@@ -17641,10 +17641,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D10">
         <v>9996205</v>
@@ -17664,10 +17664,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C11">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D11">
         <v>10058444</v>
@@ -17687,10 +17687,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C12">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D12">
         <v>9944516</v>
@@ -17710,10 +17710,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>9879225</v>
@@ -17733,10 +17733,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C14">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D14">
         <v>10049707</v>
@@ -17756,10 +17756,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>10198005</v>
@@ -17779,10 +17779,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C16">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D16">
         <v>10040233</v>
@@ -17802,10 +17802,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C17">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D17">
         <v>9965064</v>
@@ -17825,10 +17825,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C18">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D18">
         <v>9905756</v>
@@ -17848,10 +17848,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C19">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D19">
         <v>9787758</v>
@@ -17871,10 +17871,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="C20">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="D20">
         <v>10018293</v>
@@ -17894,7 +17894,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.205882352941176</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
   </sheetData>
@@ -17935,10 +17935,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C2">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D2">
         <v>11894762</v>
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -17981,7 +17981,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18004,10 +18004,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C5">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D5">
         <v>11948175</v>
@@ -18027,7 +18027,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -18050,10 +18050,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D7">
         <v>11956277</v>
@@ -18073,10 +18073,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C8">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D8">
         <v>11916956</v>
@@ -18096,10 +18096,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C9">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D9">
         <v>11949250</v>
@@ -18119,10 +18119,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C10">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D10">
         <v>11944077</v>
@@ -18142,7 +18142,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -18165,10 +18165,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C12">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D12">
         <v>11945900</v>
@@ -18188,10 +18188,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C13">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D13">
         <v>11886577</v>
@@ -18211,10 +18211,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C14">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D14">
         <v>11920513</v>
@@ -18234,10 +18234,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C15">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D15">
         <v>11864557</v>
@@ -18257,10 +18257,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C16">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D16">
         <v>11908292</v>
@@ -18280,7 +18280,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.08823529411764711</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -18303,10 +18303,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C18">
-        <v>0.0588235294117647</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D18">
         <v>11862130</v>
@@ -18326,10 +18326,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C19">
-        <v>0.0294117647058824</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="D19">
         <v>11883514</v>
@@ -18349,7 +18349,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.117647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -18372,7 +18372,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.147058823529412</v>
+        <v>0.1470588235294117</v>
       </c>
       <c r="C21">
         <v>0</v>
